--- a/Reports/ZacksRank/TanzyWatch.xlsx
+++ b/Reports/ZacksRank/TanzyWatch.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2607" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5340" uniqueCount="405">
   <si>
     <t>AMZN</t>
   </si>
@@ -1068,6 +1068,177 @@
   </si>
   <si>
     <t>Hold       ($41.16)</t>
+  </si>
+  <si>
+    <t>Jun_15</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($1,715.97)</t>
+  </si>
+  <si>
+    <t>UN         ($1,152.26)</t>
+  </si>
+  <si>
+    <t>Hold       ($1,159.27)</t>
+  </si>
+  <si>
+    <t>Hold       ($391.98)</t>
+  </si>
+  <si>
+    <t>Hold       ($188.84)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($265.26)</t>
+  </si>
+  <si>
+    <t>Hold       ($195.85)</t>
+  </si>
+  <si>
+    <t>Hold       ($168.43)</t>
+  </si>
+  <si>
+    <t>Buy        ($358.17)</t>
+  </si>
+  <si>
+    <t>Hold       ($251.82)</t>
+  </si>
+  <si>
+    <t>Hold       ($286.69)</t>
+  </si>
+  <si>
+    <t>Buy        ($357.88)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($58.23)</t>
+  </si>
+  <si>
+    <t>Hold       ($83.65)</t>
+  </si>
+  <si>
+    <t>Hold       ($77.25)</t>
+  </si>
+  <si>
+    <t>Sell       ($68.53)</t>
+  </si>
+  <si>
+    <t>Hold       ($38.89)</t>
+  </si>
+  <si>
+    <t>Hold       ($208.00)</t>
+  </si>
+  <si>
+    <t>Hold       ($49.31)</t>
+  </si>
+  <si>
+    <t>StrongSell ($39.32)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($45.80)</t>
+  </si>
+  <si>
+    <t>Hold       ($175.02)</t>
+  </si>
+  <si>
+    <t>Hold       ($63.95)</t>
+  </si>
+  <si>
+    <t>Hold       ($145.41)</t>
+  </si>
+  <si>
+    <t>Buy        ($150.45)</t>
+  </si>
+  <si>
+    <t>Hold       ($41.44)</t>
+  </si>
+  <si>
+    <t>Jun_17</t>
+  </si>
+  <si>
+    <t>Sell       ($39.32)</t>
+  </si>
+  <si>
+    <t>Sell       ($41.44)</t>
+  </si>
+  <si>
+    <t>Jun_18</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($1,723.79)</t>
+  </si>
+  <si>
+    <t>UN         ($1,173.46)</t>
+  </si>
+  <si>
+    <t>Hold       ($1,183.58)</t>
+  </si>
+  <si>
+    <t>Hold       ($390.40)</t>
+  </si>
+  <si>
+    <t>Hold       ($188.74)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($265.09)</t>
+  </si>
+  <si>
+    <t>Hold       ($198.31)</t>
+  </si>
+  <si>
+    <t>Hold       ($172.87)</t>
+  </si>
+  <si>
+    <t>Buy        ($370.83)</t>
+  </si>
+  <si>
+    <t>Hold       ($255.69)</t>
+  </si>
+  <si>
+    <t>Hold       ($279.19)</t>
+  </si>
+  <si>
+    <t>Buy        ($354.74)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($58.45)</t>
+  </si>
+  <si>
+    <t>Hold       ($83.09)</t>
+  </si>
+  <si>
+    <t>Hold       ($77.12)</t>
+  </si>
+  <si>
+    <t>Sell       ($69.96)</t>
+  </si>
+  <si>
+    <t>Hold       ($38.86)</t>
+  </si>
+  <si>
+    <t>Hold       ($208.57)</t>
+  </si>
+  <si>
+    <t>Hold       ($48.32)</t>
+  </si>
+  <si>
+    <t>Sell       ($38.29)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($46.00)</t>
+  </si>
+  <si>
+    <t>Hold       ($174.35)</t>
+  </si>
+  <si>
+    <t>Hold       ($63.90)</t>
+  </si>
+  <si>
+    <t>Hold       ($144.45)</t>
+  </si>
+  <si>
+    <t>Buy        ($151.44)</t>
+  </si>
+  <si>
+    <t>Sell       ($41.26)</t>
   </si>
 </sst>
 </file>
@@ -1084,7 +1255,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1186,6 +1357,26 @@
         <fgColor indexed="42"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1199,7 +1390,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
@@ -1219,8 +1410,10 @@
     <xf applyFill="1" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="true"/>
+    <xf applyFill="true" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1694,66 +1887,78 @@
     <col min="16" max="16" customWidth="true" width="18.83203125" collapsed="true"/>
     <col min="17" max="17" customWidth="true" width="18.83203125" collapsed="true"/>
     <col min="18" max="18" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="9.33203125" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="9.33203125" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="9.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>321</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="U1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="V1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="W1" s="0" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1762,60 +1967,69 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="I2" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="K2" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="L2" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="M2" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="N2" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="O2" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="P2" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="Q2" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="R2" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="0" t="s">
+      <c r="T2" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="0" t="s">
+      <c r="U2" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="0" t="s">
+      <c r="V2" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="0" t="s">
+      <c r="W2" s="0" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1824,60 +2038,69 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="K3" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="L3" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="M3" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="N3" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="O3" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="P3" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="Q3" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="R3" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="S3" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="T3" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="0" t="s">
+      <c r="U3" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="0" t="s">
+      <c r="V3" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="0" t="s">
+      <c r="W3" s="0" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1886,60 +2109,69 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="H4" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="I4" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="J4" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="K4" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="L4" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="M4" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="N4" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="O4" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="P4" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="Q4" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="O4" s="0" t="s">
+      <c r="R4" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="P4" s="0" t="s">
+      <c r="S4" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="Q4" s="0" t="s">
+      <c r="T4" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="0" t="s">
+      <c r="U4" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="0" t="s">
+      <c r="V4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="0" t="s">
+      <c r="W4" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1948,60 +2180,69 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="H5" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="I5" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="J5" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="K5" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="L5" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="M5" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="N5" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="O5" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="M5" s="0" t="s">
+      <c r="P5" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="N5" s="0" t="s">
+      <c r="Q5" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="O5" s="0" t="s">
+      <c r="R5" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="P5" s="0" t="s">
+      <c r="S5" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Q5" s="0" t="s">
+      <c r="T5" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="R5" s="0" t="s">
+      <c r="U5" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="S5" s="0" t="s">
+      <c r="V5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="0" t="s">
+      <c r="W5" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2010,60 +2251,69 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="F6" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="H6" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="I6" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="J6" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="K6" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="L6" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="M6" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="N6" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="O6" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="P6" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="Q6" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="O6" s="0" t="s">
+      <c r="R6" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="P6" s="0" t="s">
+      <c r="S6" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="Q6" s="0" t="s">
+      <c r="T6" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="0" t="s">
+      <c r="U6" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="S6" s="0" t="s">
+      <c r="V6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="0" t="s">
+      <c r="W6" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2072,60 +2322,69 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="F7" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="H7" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="I7" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="J7" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="K7" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="L7" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="M7" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="N7" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="L7" s="0" t="s">
+      <c r="O7" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="M7" s="0" t="s">
+      <c r="P7" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="N7" s="0" t="s">
+      <c r="Q7" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="O7" s="0" t="s">
+      <c r="R7" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="P7" s="0" t="s">
+      <c r="S7" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="Q7" s="0" t="s">
+      <c r="T7" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="S7" s="0" t="s">
+      <c r="V7" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="T7" s="0" t="s">
+      <c r="W7" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2134,24 +2393,33 @@
         <v>180</v>
       </c>
       <c r="B8" t="s">
+        <v>385</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="F8" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="H8" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="I8" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="J8" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="K8" s="0" t="s">
         <v>202</v>
       </c>
     </row>
@@ -2160,60 +2428,69 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>386</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="F9" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="G9" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="H9" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="I9" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="J9" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="K9" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="L9" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="M9" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="N9" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="L9" s="0" t="s">
+      <c r="O9" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="M9" s="0" t="s">
+      <c r="P9" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="N9" s="0" t="s">
+      <c r="Q9" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="O9" s="0" t="s">
+      <c r="R9" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="P9" s="0" t="s">
+      <c r="S9" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="Q9" s="0" t="s">
+      <c r="T9" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="R9" s="0" t="s">
+      <c r="U9" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="S9" s="0" t="s">
+      <c r="V9" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="T9" s="0" t="s">
+      <c r="W9" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2222,60 +2499,69 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
+        <v>387</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="F10" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="G10" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="H10" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="I10" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="J10" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="K10" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="L10" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="M10" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="N10" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="L10" s="0" t="s">
+      <c r="O10" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="M10" s="0" t="s">
+      <c r="P10" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="N10" s="0" t="s">
+      <c r="Q10" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="O10" s="0" t="s">
+      <c r="R10" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="0" t="s">
+      <c r="S10" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="Q10" s="0" t="s">
+      <c r="T10" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="R10" s="0" t="s">
+      <c r="U10" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="S10" s="0" t="s">
+      <c r="V10" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="T10" s="0" t="s">
+      <c r="W10" s="0" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2284,60 +2570,69 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>388</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>332</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="F11" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="H11" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="I11" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="J11" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="K11" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="L11" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="M11" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="N11" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="L11" s="0" t="s">
+      <c r="O11" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="M11" s="0" t="s">
+      <c r="P11" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="N11" s="0" t="s">
+      <c r="Q11" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="O11" s="0" t="s">
+      <c r="R11" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="P11" s="0" t="s">
+      <c r="S11" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="Q11" s="0" t="s">
+      <c r="T11" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="U11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S11" s="0" t="s">
+      <c r="V11" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="T11" s="0" t="s">
+      <c r="W11" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2346,60 +2641,69 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
+        <v>389</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="F12" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="G12" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="H12" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="I12" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="J12" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="K12" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="L12" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="M12" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="K12" s="0" t="s">
+      <c r="N12" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="L12" s="0" t="s">
+      <c r="O12" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="M12" s="0" t="s">
+      <c r="P12" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="N12" s="0" t="s">
+      <c r="Q12" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="O12" s="0" t="s">
+      <c r="R12" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="P12" s="0" t="s">
+      <c r="S12" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Q12" s="0" t="s">
+      <c r="T12" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="R12" s="0" t="s">
+      <c r="U12" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="S12" s="0" t="s">
+      <c r="V12" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="T12" s="0" t="s">
+      <c r="W12" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2408,60 +2712,69 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
+        <v>390</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="F13" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="G13" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="H13" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="I13" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="J13" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="K13" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="L13" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="J13" s="0" t="s">
+      <c r="M13" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="K13" s="0" t="s">
+      <c r="N13" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="L13" s="0" t="s">
+      <c r="O13" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="M13" s="0" t="s">
+      <c r="P13" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="N13" s="0" t="s">
+      <c r="Q13" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="O13" s="0" t="s">
+      <c r="R13" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="P13" s="0" t="s">
+      <c r="S13" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="Q13" s="0" t="s">
+      <c r="T13" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R13" s="0" t="s">
+      <c r="U13" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="S13" s="0" t="s">
+      <c r="V13" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="T13" s="0" t="s">
+      <c r="W13" s="0" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2470,60 +2783,69 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
+        <v>391</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="E14" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="F14" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="G14" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="H14" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="I14" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="J14" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="K14" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="I14" s="0" t="s">
+      <c r="L14" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="M14" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="K14" s="0" t="s">
+      <c r="N14" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="L14" s="0" t="s">
+      <c r="O14" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="M14" s="0" t="s">
+      <c r="P14" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="N14" s="8" t="s">
+      <c r="Q14" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="O14" s="6" t="s">
+      <c r="R14" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P14" s="5" t="s">
+      <c r="S14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="Q14" s="0" t="s">
+      <c r="T14" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="R14" s="2" t="s">
+      <c r="U14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S14" s="0" t="s">
+      <c r="V14" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="T14" s="0" t="s">
+      <c r="W14" s="0" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2532,60 +2854,69 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
+        <v>392</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="F15" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="H15" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="I15" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="J15" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="K15" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="I15" s="0" t="s">
+      <c r="L15" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="J15" s="0" t="s">
+      <c r="M15" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="K15" s="0" t="s">
+      <c r="N15" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="L15" s="0" t="s">
+      <c r="O15" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="M15" s="0" t="s">
+      <c r="P15" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="N15" s="0" t="s">
+      <c r="Q15" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="O15" s="0" t="s">
+      <c r="R15" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="P15" s="0" t="s">
+      <c r="S15" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="Q15" s="0" t="s">
+      <c r="T15" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="U15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S15" s="0" t="s">
+      <c r="V15" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="T15" s="0" t="s">
+      <c r="W15" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2594,60 +2925,69 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
+        <v>393</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="E16" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="F16" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="G16" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="H16" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="I16" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="J16" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="K16" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="I16" s="0" t="s">
+      <c r="L16" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="J16" s="0" t="s">
+      <c r="M16" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="K16" s="0" t="s">
+      <c r="N16" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="L16" s="0" t="s">
+      <c r="O16" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="M16" s="0" t="s">
+      <c r="P16" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="N16" s="9" t="s">
+      <c r="Q16" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="O16" s="7" t="s">
+      <c r="R16" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P16" s="0" t="s">
+      <c r="S16" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="Q16" s="0" t="s">
+      <c r="T16" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="R16" s="0" t="s">
+      <c r="U16" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="S16" s="0" t="s">
+      <c r="V16" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="T16" s="0" t="s">
+      <c r="W16" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2656,60 +2996,69 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
+        <v>394</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="E17" s="0" t="s">
         <v>337</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="F17" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="G17" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="H17" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="I17" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="J17" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="K17" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="L17" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="J17" s="0" t="s">
+      <c r="M17" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="K17" s="0" t="s">
+      <c r="N17" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="L17" s="0" t="s">
+      <c r="O17" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="M17" s="0" t="s">
+      <c r="P17" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="N17" s="0" t="s">
+      <c r="Q17" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="O17" s="0" t="s">
+      <c r="R17" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="P17" s="0" t="s">
+      <c r="S17" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="Q17" s="0" t="s">
+      <c r="T17" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="R17" s="0" t="s">
+      <c r="U17" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="S17" s="0" t="s">
+      <c r="V17" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="T17" s="0" t="s">
+      <c r="W17" s="0" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2718,60 +3067,69 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
+        <v>395</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="F18" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="G18" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="H18" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="I18" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="J18" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="K18" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="I18" s="0" t="s">
+      <c r="L18" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="J18" s="0" t="s">
+      <c r="M18" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="K18" s="0" t="s">
+      <c r="N18" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="L18" s="0" t="s">
+      <c r="O18" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="M18" s="0" t="s">
+      <c r="P18" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="N18" s="0" t="s">
+      <c r="Q18" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="O18" s="0" t="s">
+      <c r="R18" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="P18" s="0" t="s">
+      <c r="S18" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="Q18" s="0" t="s">
+      <c r="T18" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="R18" s="0" t="s">
+      <c r="U18" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="S18" s="0" t="s">
+      <c r="V18" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="T18" s="0" t="s">
+      <c r="W18" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2780,60 +3138,69 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>396</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="F19" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="G19" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="H19" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="I19" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="J19" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="K19" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="I19" s="0" t="s">
+      <c r="L19" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="J19" s="0" t="s">
+      <c r="M19" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="K19" s="0" t="s">
+      <c r="N19" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="L19" s="0" t="s">
+      <c r="O19" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="M19" s="0" t="s">
+      <c r="P19" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="N19" s="0" t="s">
+      <c r="Q19" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="O19" s="0" t="s">
+      <c r="R19" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="P19" s="0" t="s">
+      <c r="S19" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="Q19" s="0" t="s">
+      <c r="T19" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="R19" s="0" t="s">
+      <c r="U19" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="S19" s="0" t="s">
+      <c r="V19" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="T19" s="0" t="s">
+      <c r="W19" s="0" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2842,39 +3209,48 @@
         <v>114</v>
       </c>
       <c r="B20" t="s">
+        <v>397</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E20" s="0" t="s">
         <v>340</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="F20" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="G20" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="H20" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="I20" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="J20" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="K20" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="I20" s="0" t="s">
+      <c r="L20" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="J20" s="0" t="s">
+      <c r="M20" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="K20" s="0" t="s">
+      <c r="N20" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="L20" s="0" t="s">
+      <c r="O20" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="M20" s="0" t="s">
+      <c r="P20" s="0" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2882,40 +3258,49 @@
       <c r="A21" t="s">
         <v>116</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" t="s">
+        <v>398</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="E21" s="19" t="s">
         <v>341</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="F21" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="G21" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="H21" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="I21" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="J21" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="K21" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="I21" s="0" t="s">
+      <c r="L21" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="J21" s="0" t="s">
+      <c r="M21" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="K21" s="0" t="s">
+      <c r="N21" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="O21" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="M21" s="0" t="s">
+      <c r="P21" s="0" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2924,24 +3309,33 @@
         <v>179</v>
       </c>
       <c r="B22" t="s">
+        <v>399</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="F22" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="G22" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="H22" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="I22" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="J22" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="H22" s="0" t="s">
+      <c r="K22" s="0" t="s">
         <v>201</v>
       </c>
     </row>
@@ -2950,24 +3344,33 @@
         <v>269</v>
       </c>
       <c r="B23" t="s">
+        <v>400</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="F23" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="G23" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="H23" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="I23" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="J23" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="H23" s="0" t="s">
+      <c r="K23" s="0" t="s">
         <v>273</v>
       </c>
     </row>
@@ -2976,24 +3379,33 @@
         <v>274</v>
       </c>
       <c r="B24" t="s">
+        <v>401</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="E24" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="F24" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="G24" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="H24" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="I24" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="J24" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="H24" s="0" t="s">
+      <c r="K24" s="0" t="s">
         <v>278</v>
       </c>
     </row>
@@ -3002,24 +3414,33 @@
         <v>279</v>
       </c>
       <c r="B25" t="s">
+        <v>402</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="E25" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="F25" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="G25" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="H25" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="I25" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="J25" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="H25" s="0" t="s">
+      <c r="K25" s="0" t="s">
         <v>283</v>
       </c>
     </row>
@@ -3028,24 +3449,33 @@
         <v>284</v>
       </c>
       <c r="B26" t="s">
+        <v>403</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="E26" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="F26" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="G26" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="H26" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="I26" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="J26" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="H26" s="0" t="s">
+      <c r="K26" s="0" t="s">
         <v>288</v>
       </c>
     </row>
@@ -3053,25 +3483,34 @@
       <c r="A27" t="s">
         <v>289</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" t="s">
+        <v>404</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="E27" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="F27" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="G27" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="H27" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="I27" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="J27" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="H27" s="0" t="s">
+      <c r="K27" s="0" t="s">
         <v>293</v>
       </c>
     </row>

--- a/Reports/ZacksRank/TanzyWatch.xlsx
+++ b/Reports/ZacksRank/TanzyWatch.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8559" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10975" uniqueCount="538">
   <si>
     <t>AMZN</t>
   </si>
@@ -1476,6 +1476,168 @@
   </si>
   <si>
     <t>StrongSell ($40.90)</t>
+  </si>
+  <si>
+    <t>Jun_26</t>
+  </si>
+  <si>
+    <t>Buy        ($1,690.92)</t>
+  </si>
+  <si>
+    <t>UN         ($1,118.46)</t>
+  </si>
+  <si>
+    <t>Hold       ($1,132.62)</t>
+  </si>
+  <si>
+    <t>Sell       ($399.39)</t>
+  </si>
+  <si>
+    <t>Hold       ($184.43)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($241.99)</t>
+  </si>
+  <si>
+    <t>Buy        ($199.00)</t>
+  </si>
+  <si>
+    <t>Hold       ($155.00)</t>
+  </si>
+  <si>
+    <t>Buy        ($342.00)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($242.25)</t>
+  </si>
+  <si>
+    <t>Hold       ($262.15)</t>
+  </si>
+  <si>
+    <t>Buy        ($331.30)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($54.59)</t>
+  </si>
+  <si>
+    <t>Hold       ($85.94)</t>
+  </si>
+  <si>
+    <t>Hold       ($76.33)</t>
+  </si>
+  <si>
+    <t>Sell       ($63.99)</t>
+  </si>
+  <si>
+    <t>Sell       ($37.07)</t>
+  </si>
+  <si>
+    <t>Hold       ($191.47)</t>
+  </si>
+  <si>
+    <t>Hold       ($46.67)</t>
+  </si>
+  <si>
+    <t>Sell       ($39.38)</t>
+  </si>
+  <si>
+    <t>Hold       ($44.84)</t>
+  </si>
+  <si>
+    <t>Hold       ($175.98)</t>
+  </si>
+  <si>
+    <t>Hold       ($56.47)</t>
+  </si>
+  <si>
+    <t>Hold       ($139.01)</t>
+  </si>
+  <si>
+    <t>Buy        ($145.90)</t>
+  </si>
+  <si>
+    <t>Sell       ($40.05)</t>
+  </si>
+  <si>
+    <t>Jun_27</t>
+  </si>
+  <si>
+    <t>Hold       ($1,660.51)</t>
+  </si>
+  <si>
+    <t>UN         ($1,103.98)</t>
+  </si>
+  <si>
+    <t>Hold       ($1,116.94)</t>
+  </si>
+  <si>
+    <t>Hold       ($390.39)</t>
+  </si>
+  <si>
+    <t>Hold       ($184.16)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($235.72)</t>
+  </si>
+  <si>
+    <t>Buy        ($195.84)</t>
+  </si>
+  <si>
+    <t>Hold       ($144.68)</t>
+  </si>
+  <si>
+    <t>Buy        ($344.53)</t>
+  </si>
+  <si>
+    <t>Buy        ($237.68)</t>
+  </si>
+  <si>
+    <t>Hold       ($254.29)</t>
+  </si>
+  <si>
+    <t>Buy        ($330.01)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($52.26)</t>
+  </si>
+  <si>
+    <t>Hold       ($86.89)</t>
+  </si>
+  <si>
+    <t>Hold       ($76.87)</t>
+  </si>
+  <si>
+    <t>Sell       ($60.44)</t>
+  </si>
+  <si>
+    <t>Sell       ($36.30)</t>
+  </si>
+  <si>
+    <t>Hold       ($184.94)</t>
+  </si>
+  <si>
+    <t>Hold       ($45.25)</t>
+  </si>
+  <si>
+    <t>Sell       ($38.66)</t>
+  </si>
+  <si>
+    <t>Hold       ($43.72)</t>
+  </si>
+  <si>
+    <t>Hold       ($172.15)</t>
+  </si>
+  <si>
+    <t>Hold       ($51.77)</t>
+  </si>
+  <si>
+    <t>Hold       ($137.49)</t>
+  </si>
+  <si>
+    <t>Buy        ($142.30)</t>
+  </si>
+  <si>
+    <t>StrongSell ($39.60)</t>
   </si>
 </sst>
 </file>
@@ -1492,7 +1654,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1664,6 +1826,46 @@
         <fgColor indexed="45"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1677,7 +1879,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="179">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
@@ -1779,6 +1981,68 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="32" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="36" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="36" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="38" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="38" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="36" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="36" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="38" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1794,17 +2058,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2284,84 +2538,92 @@
     <col min="22" max="22" customWidth="true" width="18.83203125" collapsed="true"/>
     <col min="23" max="23" customWidth="true" width="18.83203125" collapsed="true"/>
     <col min="24" max="24" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="9.33203125" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="9.33203125" collapsed="false"/>
+    <col min="25" max="25" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="9.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>457</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>430</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>405</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>378</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>375</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>321</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="U1" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="V1" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="W1" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="X1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="Y1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="Z1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="AA1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="AB1" s="0" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2369,79 +2631,85 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="153" t="s">
+        <v>512</v>
+      </c>
+      <c r="C2" s="127" t="s">
+        <v>485</v>
+      </c>
+      <c r="D2" s="101" t="s">
         <v>458</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="E2" s="75" t="s">
         <v>431</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="F2" s="49" t="s">
         <v>406</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="G2" s="23" t="s">
         <v>379</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="K2" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="L2" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="M2" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="N2" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="O2" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="P2" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="Q2" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="R2" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="Q2" s="0" t="s">
+      <c r="S2" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="R2" s="0" t="s">
+      <c r="T2" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="S2" s="0" t="s">
+      <c r="U2" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="T2" s="0" t="s">
+      <c r="V2" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="U2" s="0" t="s">
+      <c r="W2" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="W2" s="0" t="s">
+      <c r="Y2" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="X2" s="0" t="s">
+      <c r="Z2" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="0" t="s">
+      <c r="AA2" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="Z2" s="0" t="s">
+      <c r="AB2" s="0" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2449,79 +2717,85 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="154" t="s">
+        <v>513</v>
+      </c>
+      <c r="C3" s="128" t="s">
+        <v>486</v>
+      </c>
+      <c r="D3" s="102" t="s">
         <v>459</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="E3" s="76" t="s">
         <v>432</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="F3" s="50" t="s">
         <v>407</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="G3" s="24" t="s">
         <v>380</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="K3" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="L3" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="M3" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="N3" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="O3" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="P3" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="Q3" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="R3" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="S3" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="R3" s="0" t="s">
+      <c r="T3" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="S3" s="0" t="s">
+      <c r="U3" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="T3" s="0" t="s">
+      <c r="V3" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="U3" s="0" t="s">
+      <c r="W3" s="0" t="s">
         <v>62</v>
-      </c>
-      <c r="V3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="W3" s="0" t="s">
-        <v>26</v>
       </c>
       <c r="X3" s="0" t="s">
         <v>26</v>
       </c>
       <c r="Y3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA3" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="0" t="s">
+      <c r="AB3" s="0" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2529,79 +2803,85 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="155" t="s">
+        <v>514</v>
+      </c>
+      <c r="C4" s="129" t="s">
+        <v>487</v>
+      </c>
+      <c r="D4" s="103" t="s">
         <v>460</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="E4" s="77" t="s">
         <v>433</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="F4" s="51" t="s">
         <v>408</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="G4" s="25" t="s">
         <v>381</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="H4" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="I4" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="J4" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="K4" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="L4" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="M4" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="N4" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="O4" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="P4" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="O4" s="0" t="s">
+      <c r="Q4" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="P4" s="0" t="s">
+      <c r="R4" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="Q4" s="0" t="s">
+      <c r="S4" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="R4" s="0" t="s">
+      <c r="T4" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="S4" s="0" t="s">
+      <c r="U4" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="T4" s="0" t="s">
+      <c r="V4" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="U4" s="0" t="s">
+      <c r="W4" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="V4" s="0" t="s">
+      <c r="X4" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="W4" s="0" t="s">
+      <c r="Y4" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="X4" s="0" t="s">
+      <c r="Z4" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="Y4" s="0" t="s">
+      <c r="AA4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="Z4" s="0" t="s">
+      <c r="AB4" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2609,79 +2889,85 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="156" t="s">
+        <v>515</v>
+      </c>
+      <c r="C5" s="130" t="s">
+        <v>488</v>
+      </c>
+      <c r="D5" s="104" t="s">
         <v>461</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="E5" s="78" t="s">
         <v>434</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="F5" s="52" t="s">
         <v>409</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="G5" s="26" t="s">
         <v>382</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="H5" s="0" t="s">
         <v>352</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="I5" s="0" t="s">
         <v>352</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="J5" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="K5" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="L5" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="M5" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="N5" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="M5" s="0" t="s">
+      <c r="O5" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="N5" s="0" t="s">
+      <c r="P5" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="O5" s="0" t="s">
+      <c r="Q5" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="P5" s="0" t="s">
+      <c r="R5" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="Q5" s="0" t="s">
+      <c r="S5" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="R5" s="0" t="s">
+      <c r="T5" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="S5" s="0" t="s">
+      <c r="U5" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="T5" s="0" t="s">
+      <c r="V5" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="U5" s="0" t="s">
+      <c r="W5" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="V5" s="0" t="s">
+      <c r="X5" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="W5" s="0" t="s">
+      <c r="Y5" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="X5" s="0" t="s">
+      <c r="Z5" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="Y5" s="0" t="s">
+      <c r="AA5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="Z5" s="0" t="s">
+      <c r="AB5" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2689,79 +2975,85 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="157" t="s">
+        <v>516</v>
+      </c>
+      <c r="C6" s="131" t="s">
+        <v>489</v>
+      </c>
+      <c r="D6" s="105" t="s">
         <v>462</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="E6" s="79" t="s">
         <v>435</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="F6" s="53" t="s">
         <v>410</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="G6" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="H6" s="0" t="s">
         <v>353</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="I6" s="0" t="s">
         <v>353</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="J6" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="K6" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="L6" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="M6" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="N6" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="O6" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="P6" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="O6" s="0" t="s">
+      <c r="Q6" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="P6" s="0" t="s">
+      <c r="R6" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="Q6" s="0" t="s">
+      <c r="S6" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="R6" s="0" t="s">
+      <c r="T6" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="S6" s="0" t="s">
+      <c r="U6" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="T6" s="0" t="s">
+      <c r="V6" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="U6" s="0" t="s">
+      <c r="W6" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="V6" s="0" t="s">
+      <c r="X6" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="W6" s="0" t="s">
+      <c r="Y6" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="X6" s="0" t="s">
+      <c r="Z6" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="Y6" s="0" t="s">
+      <c r="AA6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="Z6" s="0" t="s">
+      <c r="AB6" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2769,79 +3061,85 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="158" t="s">
+        <v>517</v>
+      </c>
+      <c r="C7" s="132" t="s">
+        <v>490</v>
+      </c>
+      <c r="D7" s="106" t="s">
         <v>463</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="E7" s="80" t="s">
         <v>436</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="F7" s="54" t="s">
         <v>411</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="G7" s="28" t="s">
         <v>384</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="H7" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="I7" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="J7" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="K7" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="L7" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="M7" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="L7" s="0" t="s">
+      <c r="N7" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="M7" s="0" t="s">
+      <c r="O7" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="N7" s="0" t="s">
+      <c r="P7" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="O7" s="0" t="s">
+      <c r="Q7" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="P7" s="0" t="s">
+      <c r="R7" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="Q7" s="0" t="s">
+      <c r="S7" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="R7" s="0" t="s">
+      <c r="T7" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="S7" s="0" t="s">
+      <c r="U7" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="T7" s="0" t="s">
+      <c r="V7" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="U7" s="0" t="s">
+      <c r="W7" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="V7" s="0" t="s">
+      <c r="X7" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="W7" s="0" t="s">
+      <c r="Y7" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="Z7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Y7" s="0" t="s">
+      <c r="AA7" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="Z7" s="0" t="s">
+      <c r="AB7" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2849,43 +3147,49 @@
       <c r="A8" t="s">
         <v>180</v>
       </c>
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="159" t="s">
+        <v>518</v>
+      </c>
+      <c r="C8" s="133" t="s">
+        <v>491</v>
+      </c>
+      <c r="D8" s="107" t="s">
         <v>464</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="E8" s="81" t="s">
         <v>437</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="F8" s="55" t="s">
         <v>412</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="G8" s="29" t="s">
         <v>385</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="H8" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="I8" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="J8" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="K8" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="L8" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="M8" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="N8" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="M8" s="0" t="s">
+      <c r="O8" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="N8" s="0" t="s">
+      <c r="P8" s="0" t="s">
         <v>202</v>
       </c>
     </row>
@@ -2893,79 +3197,85 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="160" t="s">
+        <v>519</v>
+      </c>
+      <c r="C9" s="134" t="s">
+        <v>492</v>
+      </c>
+      <c r="D9" s="108" t="s">
         <v>465</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="E9" s="82" t="s">
         <v>438</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="F9" s="56" t="s">
         <v>413</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="G9" s="30" t="s">
         <v>386</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="H9" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="I9" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="J9" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="K9" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="L9" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="M9" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="L9" s="0" t="s">
+      <c r="N9" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="M9" s="0" t="s">
+      <c r="O9" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="N9" s="0" t="s">
+      <c r="P9" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="O9" s="0" t="s">
+      <c r="Q9" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="P9" s="0" t="s">
+      <c r="R9" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="Q9" s="0" t="s">
+      <c r="S9" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="R9" s="0" t="s">
+      <c r="T9" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="S9" s="0" t="s">
+      <c r="U9" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="T9" s="0" t="s">
+      <c r="V9" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="U9" s="0" t="s">
+      <c r="W9" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="V9" s="0" t="s">
+      <c r="X9" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="0" t="s">
+      <c r="Y9" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="X9" s="0" t="s">
+      <c r="Z9" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="Y9" s="0" t="s">
+      <c r="AA9" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="Z9" s="0" t="s">
+      <c r="AB9" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2973,79 +3283,85 @@
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="109" t="s">
+      <c r="B10" s="161" t="s">
+        <v>520</v>
+      </c>
+      <c r="C10" s="135" t="s">
+        <v>493</v>
+      </c>
+      <c r="D10" s="109" t="s">
         <v>466</v>
       </c>
-      <c r="C10" s="83" t="s">
+      <c r="E10" s="83" t="s">
         <v>439</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="F10" s="57" t="s">
         <v>414</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="G10" s="31" t="s">
         <v>387</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="H10" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="I10" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="J10" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="K10" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="L10" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="M10" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="L10" s="0" t="s">
+      <c r="N10" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="M10" s="13" t="s">
+      <c r="O10" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="N10" s="0" t="s">
+      <c r="P10" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="Q10" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="P10" s="0" t="s">
+      <c r="R10" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="Q10" s="0" t="s">
+      <c r="S10" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="R10" s="0" t="s">
+      <c r="T10" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="S10" s="0" t="s">
+      <c r="U10" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="T10" s="0" t="s">
+      <c r="V10" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="U10" s="0" t="s">
+      <c r="W10" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="V10" s="0" t="s">
+      <c r="X10" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="W10" s="0" t="s">
+      <c r="Y10" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="X10" s="0" t="s">
+      <c r="Z10" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="Y10" s="0" t="s">
+      <c r="AA10" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="Z10" s="0" t="s">
+      <c r="AB10" s="0" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3053,79 +3369,85 @@
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="110" t="s">
+      <c r="B11" s="162" t="s">
+        <v>521</v>
+      </c>
+      <c r="C11" s="136" t="s">
+        <v>494</v>
+      </c>
+      <c r="D11" s="110" t="s">
         <v>467</v>
       </c>
-      <c r="C11" s="84" t="s">
+      <c r="E11" s="84" t="s">
         <v>440</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="F11" s="58" t="s">
         <v>415</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="G11" s="32" t="s">
         <v>388</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="H11" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="I11" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="J11" s="0" t="s">
         <v>332</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="K11" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="L11" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="M11" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="L11" s="0" t="s">
+      <c r="N11" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="M11" s="0" t="s">
+      <c r="O11" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="N11" s="0" t="s">
+      <c r="P11" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="O11" s="0" t="s">
+      <c r="Q11" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="P11" s="0" t="s">
+      <c r="R11" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="Q11" s="0" t="s">
+      <c r="S11" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="R11" s="0" t="s">
+      <c r="T11" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="S11" s="0" t="s">
+      <c r="U11" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="T11" s="0" t="s">
+      <c r="V11" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="U11" s="0" t="s">
+      <c r="W11" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="V11" s="0" t="s">
+      <c r="X11" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="W11" s="0" t="s">
+      <c r="Y11" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="X11" s="2" t="s">
+      <c r="Z11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Y11" s="0" t="s">
+      <c r="AA11" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="Z11" s="0" t="s">
+      <c r="AB11" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3133,79 +3455,85 @@
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="111" t="s">
+      <c r="B12" s="163" t="s">
+        <v>522</v>
+      </c>
+      <c r="C12" s="137" t="s">
+        <v>495</v>
+      </c>
+      <c r="D12" s="111" t="s">
         <v>468</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="E12" s="85" t="s">
         <v>441</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="F12" s="59" t="s">
         <v>416</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="G12" s="33" t="s">
         <v>389</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="H12" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="I12" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="J12" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="K12" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="L12" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="K12" s="0" t="s">
+      <c r="M12" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="L12" s="0" t="s">
+      <c r="N12" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="M12" s="0" t="s">
+      <c r="O12" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="N12" s="0" t="s">
+      <c r="P12" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="O12" s="0" t="s">
+      <c r="Q12" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="P12" s="0" t="s">
+      <c r="R12" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="Q12" s="0" t="s">
+      <c r="S12" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="R12" s="0" t="s">
+      <c r="T12" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="S12" s="0" t="s">
+      <c r="U12" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="T12" s="0" t="s">
+      <c r="V12" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="U12" s="0" t="s">
+      <c r="W12" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="V12" s="0" t="s">
+      <c r="X12" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="W12" s="0" t="s">
+      <c r="Y12" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="X12" s="0" t="s">
+      <c r="Z12" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="Y12" s="0" t="s">
+      <c r="AA12" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="Z12" s="0" t="s">
+      <c r="AB12" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3213,79 +3541,85 @@
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="112" t="s">
+      <c r="B13" s="164" t="s">
+        <v>523</v>
+      </c>
+      <c r="C13" s="138" t="s">
+        <v>496</v>
+      </c>
+      <c r="D13" s="112" t="s">
         <v>469</v>
       </c>
-      <c r="C13" s="86" t="s">
+      <c r="E13" s="86" t="s">
         <v>442</v>
       </c>
-      <c r="D13" s="60" t="s">
+      <c r="F13" s="60" t="s">
         <v>417</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="G13" s="34" t="s">
         <v>390</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="H13" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="I13" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="J13" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="K13" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="J13" s="0" t="s">
+      <c r="L13" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="K13" s="0" t="s">
+      <c r="M13" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="L13" s="0" t="s">
+      <c r="N13" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="M13" s="0" t="s">
+      <c r="O13" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="N13" s="0" t="s">
+      <c r="P13" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="O13" s="0" t="s">
+      <c r="Q13" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="P13" s="0" t="s">
+      <c r="R13" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="Q13" s="0" t="s">
+      <c r="S13" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="R13" s="0" t="s">
+      <c r="T13" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="S13" s="0" t="s">
+      <c r="U13" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="T13" s="0" t="s">
+      <c r="V13" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="U13" s="0" t="s">
+      <c r="W13" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="V13" s="0" t="s">
+      <c r="X13" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="W13" s="0" t="s">
+      <c r="Y13" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="X13" s="0" t="s">
+      <c r="Z13" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="Y13" s="0" t="s">
+      <c r="AA13" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="Z13" s="0" t="s">
+      <c r="AB13" s="0" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3293,79 +3627,85 @@
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="113" t="s">
+      <c r="B14" s="165" t="s">
+        <v>524</v>
+      </c>
+      <c r="C14" s="139" t="s">
+        <v>497</v>
+      </c>
+      <c r="D14" s="113" t="s">
         <v>470</v>
       </c>
-      <c r="C14" s="87" t="s">
+      <c r="E14" s="87" t="s">
         <v>443</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="F14" s="61" t="s">
         <v>418</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="G14" s="35" t="s">
         <v>391</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="H14" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="I14" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="J14" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="I14" s="0" t="s">
+      <c r="K14" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="L14" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="K14" s="0" t="s">
+      <c r="M14" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="L14" s="0" t="s">
+      <c r="N14" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="M14" s="0" t="s">
+      <c r="O14" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="N14" s="0" t="s">
+      <c r="P14" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="O14" s="0" t="s">
+      <c r="Q14" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="P14" s="0" t="s">
+      <c r="R14" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="Q14" s="0" t="s">
+      <c r="S14" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="R14" s="0" t="s">
+      <c r="T14" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="S14" s="0" t="s">
+      <c r="U14" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="T14" s="8" t="s">
+      <c r="V14" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="U14" s="6" t="s">
+      <c r="W14" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="V14" s="5" t="s">
+      <c r="X14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="W14" s="0" t="s">
+      <c r="Y14" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="X14" s="2" t="s">
+      <c r="Z14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Y14" s="0" t="s">
+      <c r="AA14" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="Z14" s="0" t="s">
+      <c r="AB14" s="0" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3373,79 +3713,85 @@
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="114" t="s">
+      <c r="B15" s="166" t="s">
+        <v>525</v>
+      </c>
+      <c r="C15" s="140" t="s">
+        <v>498</v>
+      </c>
+      <c r="D15" s="114" t="s">
         <v>471</v>
       </c>
-      <c r="C15" s="88" t="s">
+      <c r="E15" s="88" t="s">
         <v>444</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="F15" s="62" t="s">
         <v>392</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="G15" s="36" t="s">
         <v>392</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="H15" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="I15" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="J15" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="I15" s="0" t="s">
+      <c r="K15" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="J15" s="0" t="s">
+      <c r="L15" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="K15" s="0" t="s">
+      <c r="M15" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="L15" s="0" t="s">
+      <c r="N15" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="M15" s="0" t="s">
+      <c r="O15" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="N15" s="0" t="s">
+      <c r="P15" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="O15" s="0" t="s">
+      <c r="Q15" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="P15" s="0" t="s">
+      <c r="R15" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="Q15" s="0" t="s">
+      <c r="S15" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="R15" s="0" t="s">
+      <c r="T15" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="S15" s="0" t="s">
+      <c r="U15" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="T15" s="0" t="s">
+      <c r="V15" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="U15" s="0" t="s">
+      <c r="W15" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="V15" s="0" t="s">
+      <c r="X15" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="W15" s="0" t="s">
+      <c r="Y15" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="X15" s="3" t="s">
+      <c r="Z15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Y15" s="0" t="s">
+      <c r="AA15" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="Z15" s="0" t="s">
+      <c r="AB15" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3453,79 +3799,85 @@
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="115" t="s">
+      <c r="B16" s="167" t="s">
+        <v>526</v>
+      </c>
+      <c r="C16" s="141" t="s">
+        <v>499</v>
+      </c>
+      <c r="D16" s="115" t="s">
         <v>472</v>
       </c>
-      <c r="C16" s="89" t="s">
+      <c r="E16" s="89" t="s">
         <v>445</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="F16" s="63" t="s">
         <v>419</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="G16" s="37" t="s">
         <v>393</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="H16" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="I16" s="0" t="s">
         <v>363</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>309</v>
       </c>
       <c r="J16" s="0" t="s">
         <v>309</v>
       </c>
       <c r="K16" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="M16" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="L16" s="0" t="s">
+      <c r="N16" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="M16" s="0" t="s">
+      <c r="O16" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="N16" s="0" t="s">
+      <c r="P16" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="O16" s="0" t="s">
+      <c r="Q16" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="P16" s="0" t="s">
+      <c r="R16" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="Q16" s="0" t="s">
+      <c r="S16" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="R16" s="0" t="s">
+      <c r="T16" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="S16" s="0" t="s">
+      <c r="U16" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="T16" s="9" t="s">
+      <c r="V16" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="U16" s="7" t="s">
+      <c r="W16" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="V16" s="0" t="s">
+      <c r="X16" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="W16" s="0" t="s">
+      <c r="Y16" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="X16" s="0" t="s">
+      <c r="Z16" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="Y16" s="0" t="s">
+      <c r="AA16" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="Z16" s="0" t="s">
+      <c r="AB16" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3533,79 +3885,85 @@
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="116" t="s">
+      <c r="B17" s="168" t="s">
+        <v>527</v>
+      </c>
+      <c r="C17" s="142" t="s">
+        <v>500</v>
+      </c>
+      <c r="D17" s="116" t="s">
         <v>473</v>
       </c>
-      <c r="C17" s="90" t="s">
+      <c r="E17" s="90" t="s">
         <v>446</v>
       </c>
-      <c r="D17" s="64" t="s">
+      <c r="F17" s="64" t="s">
         <v>420</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="G17" s="38" t="s">
         <v>394</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="H17" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="I17" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="J17" s="0" t="s">
         <v>337</v>
       </c>
-      <c r="I17" s="0" t="s">
+      <c r="K17" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="J17" s="0" t="s">
+      <c r="L17" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="K17" s="0" t="s">
+      <c r="M17" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="L17" s="16" t="s">
+      <c r="N17" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="M17" s="0" t="s">
+      <c r="O17" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="N17" s="0" t="s">
+      <c r="P17" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="O17" s="12" t="s">
+      <c r="Q17" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="P17" s="0" t="s">
+      <c r="R17" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="Q17" s="0" t="s">
+      <c r="S17" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="R17" s="0" t="s">
+      <c r="T17" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="S17" s="0" t="s">
+      <c r="U17" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="T17" s="0" t="s">
+      <c r="V17" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="U17" s="0" t="s">
+      <c r="W17" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="V17" s="0" t="s">
+      <c r="X17" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="W17" s="0" t="s">
+      <c r="Y17" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="X17" s="0" t="s">
+      <c r="Z17" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="Y17" s="0" t="s">
+      <c r="AA17" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="Z17" s="0" t="s">
+      <c r="AB17" s="0" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3613,79 +3971,85 @@
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="117" t="s">
+      <c r="B18" s="169" t="s">
+        <v>528</v>
+      </c>
+      <c r="C18" s="143" t="s">
+        <v>501</v>
+      </c>
+      <c r="D18" s="117" t="s">
         <v>474</v>
       </c>
-      <c r="C18" s="91" t="s">
+      <c r="E18" s="91" t="s">
         <v>447</v>
       </c>
-      <c r="D18" s="65" t="s">
+      <c r="F18" s="65" t="s">
         <v>421</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="G18" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="H18" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="I18" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="J18" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="I18" s="0" t="s">
+      <c r="K18" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="J18" s="0" t="s">
+      <c r="L18" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="K18" s="0" t="s">
+      <c r="M18" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="L18" s="0" t="s">
+      <c r="N18" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="M18" s="0" t="s">
+      <c r="O18" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="N18" s="0" t="s">
+      <c r="P18" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="O18" s="0" t="s">
+      <c r="Q18" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="P18" s="0" t="s">
+      <c r="R18" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="Q18" s="0" t="s">
+      <c r="S18" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="R18" s="0" t="s">
+      <c r="T18" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="S18" s="0" t="s">
+      <c r="U18" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="T18" s="0" t="s">
+      <c r="V18" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="U18" s="0" t="s">
+      <c r="W18" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="V18" s="0" t="s">
+      <c r="X18" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="W18" s="0" t="s">
+      <c r="Y18" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="X18" s="0" t="s">
+      <c r="Z18" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="Y18" s="0" t="s">
+      <c r="AA18" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="Z18" s="0" t="s">
+      <c r="AB18" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3693,79 +4057,85 @@
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="118" t="s">
+      <c r="B19" s="170" t="s">
+        <v>529</v>
+      </c>
+      <c r="C19" s="144" t="s">
+        <v>502</v>
+      </c>
+      <c r="D19" s="118" t="s">
         <v>475</v>
       </c>
-      <c r="C19" s="92" t="s">
+      <c r="E19" s="92" t="s">
         <v>448</v>
       </c>
-      <c r="D19" s="66" t="s">
+      <c r="F19" s="66" t="s">
         <v>422</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="G19" s="40" t="s">
         <v>396</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="H19" s="0" t="s">
         <v>366</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="I19" s="0" t="s">
         <v>366</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="J19" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="I19" s="0" t="s">
+      <c r="K19" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="J19" s="0" t="s">
+      <c r="L19" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="K19" s="0" t="s">
+      <c r="M19" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="L19" s="0" t="s">
+      <c r="N19" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="M19" s="0" t="s">
+      <c r="O19" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="N19" s="0" t="s">
+      <c r="P19" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="O19" s="0" t="s">
+      <c r="Q19" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="P19" s="0" t="s">
+      <c r="R19" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="Q19" s="0" t="s">
+      <c r="S19" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="R19" s="0" t="s">
+      <c r="T19" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="S19" s="0" t="s">
+      <c r="U19" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="T19" s="0" t="s">
+      <c r="V19" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="U19" s="0" t="s">
+      <c r="W19" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="V19" s="0" t="s">
+      <c r="X19" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="W19" s="0" t="s">
+      <c r="Y19" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="X19" s="0" t="s">
+      <c r="Z19" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="Y19" s="0" t="s">
+      <c r="AA19" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="Z19" s="0" t="s">
+      <c r="AB19" s="0" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3773,58 +4143,64 @@
       <c r="A20" t="s">
         <v>114</v>
       </c>
-      <c r="B20" s="119" t="s">
+      <c r="B20" s="171" t="s">
+        <v>530</v>
+      </c>
+      <c r="C20" s="145" t="s">
+        <v>503</v>
+      </c>
+      <c r="D20" s="119" t="s">
         <v>476</v>
       </c>
-      <c r="C20" s="93" t="s">
+      <c r="E20" s="93" t="s">
         <v>449</v>
       </c>
-      <c r="D20" s="67" t="s">
+      <c r="F20" s="67" t="s">
         <v>423</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="G20" s="41" t="s">
         <v>397</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="H20" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="I20" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="J20" s="0" t="s">
         <v>340</v>
       </c>
-      <c r="I20" s="0" t="s">
+      <c r="K20" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="J20" s="0" t="s">
+      <c r="L20" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="K20" s="0" t="s">
+      <c r="M20" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="L20" s="0" t="s">
+      <c r="N20" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="M20" s="0" t="s">
+      <c r="O20" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="N20" s="0" t="s">
+      <c r="P20" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="O20" s="0" t="s">
+      <c r="Q20" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="P20" s="0" t="s">
+      <c r="R20" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="Q20" s="0" t="s">
+      <c r="S20" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="R20" s="0" t="s">
+      <c r="T20" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="S20" s="0" t="s">
+      <c r="U20" s="0" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3832,58 +4208,64 @@
       <c r="A21" t="s">
         <v>116</v>
       </c>
-      <c r="B21" s="120" t="s">
+      <c r="B21" s="172" t="s">
+        <v>531</v>
+      </c>
+      <c r="C21" s="146" t="s">
+        <v>504</v>
+      </c>
+      <c r="D21" s="120" t="s">
         <v>477</v>
       </c>
-      <c r="C21" s="94" t="s">
+      <c r="E21" s="94" t="s">
         <v>450</v>
       </c>
-      <c r="D21" s="68" t="s">
+      <c r="F21" s="68" t="s">
         <v>424</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="G21" s="42" t="s">
         <v>398</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="H21" s="21" t="s">
         <v>376</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="I21" s="0" t="s">
         <v>368</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="J21" s="19" t="s">
         <v>341</v>
       </c>
-      <c r="I21" s="0" t="s">
+      <c r="K21" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="J21" s="0" t="s">
+      <c r="L21" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="K21" s="0" t="s">
+      <c r="M21" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="L21" s="17" t="s">
+      <c r="N21" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="M21" s="14" t="s">
+      <c r="O21" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="N21" s="0" t="s">
+      <c r="P21" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="O21" s="0" t="s">
+      <c r="Q21" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="P21" s="0" t="s">
+      <c r="R21" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="Q21" s="0" t="s">
+      <c r="S21" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="R21" s="10" t="s">
+      <c r="T21" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="S21" s="0" t="s">
+      <c r="U21" s="0" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3891,43 +4273,49 @@
       <c r="A22" t="s">
         <v>179</v>
       </c>
-      <c r="B22" s="121" t="s">
+      <c r="B22" s="173" t="s">
+        <v>532</v>
+      </c>
+      <c r="C22" s="147" t="s">
+        <v>505</v>
+      </c>
+      <c r="D22" s="121" t="s">
         <v>478</v>
       </c>
-      <c r="C22" s="95" t="s">
+      <c r="E22" s="95" t="s">
         <v>451</v>
       </c>
-      <c r="D22" s="69" t="s">
+      <c r="F22" s="69" t="s">
         <v>425</v>
       </c>
-      <c r="E22" s="43" t="s">
+      <c r="G22" s="43" t="s">
         <v>399</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="H22" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="I22" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="H22" s="0" t="s">
+      <c r="J22" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="I22" s="0" t="s">
+      <c r="K22" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="J22" s="0" t="s">
+      <c r="L22" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="K22" s="0" t="s">
+      <c r="M22" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="L22" s="0" t="s">
+      <c r="N22" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="M22" s="0" t="s">
+      <c r="O22" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="N22" s="0" t="s">
+      <c r="P22" s="0" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3935,43 +4323,49 @@
       <c r="A23" t="s">
         <v>269</v>
       </c>
-      <c r="B23" s="122" t="s">
+      <c r="B23" s="174" t="s">
+        <v>533</v>
+      </c>
+      <c r="C23" s="148" t="s">
+        <v>506</v>
+      </c>
+      <c r="D23" s="122" t="s">
         <v>479</v>
       </c>
-      <c r="C23" s="96" t="s">
+      <c r="E23" s="96" t="s">
         <v>452</v>
       </c>
-      <c r="D23" s="70" t="s">
+      <c r="F23" s="70" t="s">
         <v>426</v>
       </c>
-      <c r="E23" s="44" t="s">
+      <c r="G23" s="44" t="s">
         <v>400</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="H23" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="I23" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="H23" s="0" t="s">
+      <c r="J23" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="I23" s="0" t="s">
+      <c r="K23" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="J23" s="0" t="s">
+      <c r="L23" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="K23" s="0" t="s">
+      <c r="M23" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="L23" s="0" t="s">
+      <c r="N23" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="M23" s="0" t="s">
+      <c r="O23" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="N23" s="0" t="s">
+      <c r="P23" s="0" t="s">
         <v>273</v>
       </c>
     </row>
@@ -3979,43 +4373,49 @@
       <c r="A24" t="s">
         <v>274</v>
       </c>
-      <c r="B24" s="123" t="s">
+      <c r="B24" s="175" t="s">
+        <v>534</v>
+      </c>
+      <c r="C24" s="149" t="s">
+        <v>507</v>
+      </c>
+      <c r="D24" s="123" t="s">
         <v>480</v>
       </c>
-      <c r="C24" s="97" t="s">
+      <c r="E24" s="97" t="s">
         <v>453</v>
       </c>
-      <c r="D24" s="71" t="s">
+      <c r="F24" s="71" t="s">
         <v>218</v>
       </c>
-      <c r="E24" s="45" t="s">
+      <c r="G24" s="45" t="s">
         <v>401</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="H24" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="I24" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="H24" s="0" t="s">
+      <c r="J24" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="I24" s="0" t="s">
+      <c r="K24" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="J24" s="0" t="s">
+      <c r="L24" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="K24" s="0" t="s">
+      <c r="M24" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="L24" s="0" t="s">
+      <c r="N24" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="M24" s="0" t="s">
+      <c r="O24" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="N24" s="0" t="s">
+      <c r="P24" s="0" t="s">
         <v>278</v>
       </c>
     </row>
@@ -4023,43 +4423,49 @@
       <c r="A25" t="s">
         <v>279</v>
       </c>
-      <c r="B25" s="124" t="s">
+      <c r="B25" s="176" t="s">
+        <v>535</v>
+      </c>
+      <c r="C25" s="150" t="s">
+        <v>508</v>
+      </c>
+      <c r="D25" s="124" t="s">
         <v>481</v>
       </c>
-      <c r="C25" s="98" t="s">
+      <c r="E25" s="98" t="s">
         <v>454</v>
       </c>
-      <c r="D25" s="72" t="s">
+      <c r="F25" s="72" t="s">
         <v>427</v>
       </c>
-      <c r="E25" s="46" t="s">
+      <c r="G25" s="46" t="s">
         <v>402</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="H25" s="0" t="s">
         <v>372</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="I25" s="0" t="s">
         <v>372</v>
       </c>
-      <c r="H25" s="0" t="s">
+      <c r="J25" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="I25" s="0" t="s">
+      <c r="K25" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="J25" s="0" t="s">
+      <c r="L25" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="K25" s="0" t="s">
+      <c r="M25" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="L25" s="0" t="s">
+      <c r="N25" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="M25" s="0" t="s">
+      <c r="O25" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="N25" s="0" t="s">
+      <c r="P25" s="0" t="s">
         <v>283</v>
       </c>
     </row>
@@ -4067,43 +4473,49 @@
       <c r="A26" t="s">
         <v>284</v>
       </c>
-      <c r="B26" s="125" t="s">
+      <c r="B26" s="177" t="s">
+        <v>536</v>
+      </c>
+      <c r="C26" s="151" t="s">
+        <v>509</v>
+      </c>
+      <c r="D26" s="125" t="s">
         <v>482</v>
       </c>
-      <c r="C26" s="99" t="s">
+      <c r="E26" s="99" t="s">
         <v>455</v>
       </c>
-      <c r="D26" s="73" t="s">
+      <c r="F26" s="73" t="s">
         <v>428</v>
       </c>
-      <c r="E26" s="47" t="s">
+      <c r="G26" s="47" t="s">
         <v>403</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="H26" s="0" t="s">
         <v>373</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="I26" s="0" t="s">
         <v>373</v>
       </c>
-      <c r="H26" s="0" t="s">
+      <c r="J26" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="I26" s="0" t="s">
+      <c r="K26" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="J26" s="0" t="s">
+      <c r="L26" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="K26" s="0" t="s">
+      <c r="M26" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="L26" s="0" t="s">
+      <c r="N26" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="M26" s="17" t="s">
+      <c r="O26" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="N26" s="0" t="s">
+      <c r="P26" s="0" t="s">
         <v>288</v>
       </c>
     </row>
@@ -4111,43 +4523,49 @@
       <c r="A27" t="s">
         <v>289</v>
       </c>
-      <c r="B27" s="126" t="s">
+      <c r="B27" s="178" t="s">
+        <v>537</v>
+      </c>
+      <c r="C27" s="152" t="s">
+        <v>510</v>
+      </c>
+      <c r="D27" s="126" t="s">
         <v>483</v>
       </c>
-      <c r="C27" s="100" t="s">
+      <c r="E27" s="100" t="s">
         <v>456</v>
       </c>
-      <c r="D27" s="74" t="s">
+      <c r="F27" s="74" t="s">
         <v>429</v>
       </c>
-      <c r="E27" s="48" t="s">
+      <c r="G27" s="48" t="s">
         <v>404</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="H27" s="22" t="s">
         <v>377</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="I27" s="0" t="s">
         <v>374</v>
       </c>
-      <c r="H27" s="20" t="s">
+      <c r="J27" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="I27" s="0" t="s">
+      <c r="K27" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="J27" s="18" t="s">
+      <c r="L27" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="K27" s="0" t="s">
+      <c r="M27" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="L27" s="0" t="s">
+      <c r="N27" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="M27" s="0" t="s">
+      <c r="O27" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="N27" s="0" t="s">
+      <c r="P27" s="0" t="s">
         <v>293</v>
       </c>
     </row>
